--- a/data/03022.xlsx
+++ b/data/03022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1427,6 +1427,80 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>03022</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MCOM</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>03022</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MCOM</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03022.xlsx
+++ b/data/03022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1501,6 +1501,43 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>03022</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MCOM</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03022.xlsx
+++ b/data/03022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1538,6 +1538,43 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>03022</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>MCOM</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03022.xlsx
+++ b/data/03022.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,6 +1575,43 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>03022</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>MCOM</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
